--- a/7. Risk Management/BSS_RiskAndIssueList_V1.1.xlsx
+++ b/7. Risk Management/BSS_RiskAndIssueList_V1.1.xlsx
@@ -764,9 +764,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -815,6 +812,9 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -823,17 +823,318 @@
   <dxfs count="34">
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="9"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
         <color auto="1"/>
-        <name val="Times New Roman"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <name val="Segoe UI"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1173,239 +1474,6 @@
       <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border outline="0">
-        <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <border outline="0">
         <left style="thin">
           <color theme="0" tint="-0.34998626667073579"/>
@@ -1429,79 +1497,11 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="9"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -2612,11 +2612,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="65"/>
-        <c:axId val="90199168"/>
-        <c:axId val="90210304"/>
+        <c:axId val="72508544"/>
+        <c:axId val="72519680"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="90199168"/>
+        <c:axId val="72508544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2659,7 +2659,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90210304"/>
+        <c:crossAx val="72519680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2667,7 +2667,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="90210304"/>
+        <c:axId val="72519680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2703,7 +2703,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90199168"/>
+        <c:crossAx val="72508544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3784,7 +3784,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CE0ED5F5-A0D8-4C7F-A05B-AF65D92FB984}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE0ED5F5-A0D8-4C7F-A05B-AF65D92FB984}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3822,7 +3822,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DF3CB91A-BF33-47BF-86B2-5302FF3E0625}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF3CB91A-BF33-47BF-86B2-5302FF3E0625}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3860,7 +3860,7 @@
         <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{745C757D-EEA0-4E8F-A7DF-4917898F0AF6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{745C757D-EEA0-4E8F-A7DF-4917898F0AF6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3896,7 +3896,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D8EAB6BE-AD1C-4008-B2AD-2A535C15335C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8EAB6BE-AD1C-4008-B2AD-2A535C15335C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3918,43 +3918,43 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B5:L32" totalsRowShown="0" headerRowDxfId="27" dataDxfId="0" tableBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B5:L32" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26" tableBorderDxfId="25">
   <autoFilter ref="B5:L32"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="ID" dataDxfId="11">
+    <tableColumn id="1" name="ID" dataDxfId="24">
       <calculatedColumnFormula>B5+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Risk Description" dataDxfId="10"/>
-    <tableColumn id="6" name="Department" dataDxfId="9"/>
-    <tableColumn id="4" name="Actual Status" dataDxfId="8"/>
-    <tableColumn id="3" name="Indentified_Date" dataDxfId="7"/>
-    <tableColumn id="5" name="Owner" dataDxfId="6"/>
-    <tableColumn id="9" name="Impact" dataDxfId="5"/>
-    <tableColumn id="12" name="Probability(scale)" dataDxfId="4"/>
-    <tableColumn id="8" name="Risk score" dataDxfId="3">
+    <tableColumn id="2" name="Risk Description" dataDxfId="23"/>
+    <tableColumn id="6" name="Department" dataDxfId="22"/>
+    <tableColumn id="4" name="Actual Status" dataDxfId="21"/>
+    <tableColumn id="3" name="Indentified_Date" dataDxfId="20"/>
+    <tableColumn id="5" name="Owner" dataDxfId="19"/>
+    <tableColumn id="9" name="Impact" dataDxfId="18"/>
+    <tableColumn id="12" name="Probability(scale)" dataDxfId="17"/>
+    <tableColumn id="8" name="Risk score" dataDxfId="16">
       <calculatedColumnFormula>Table1[[#This Row],[Impact]]*Table1[[#This Row],[Probability(scale)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="Priority" dataDxfId="2"/>
-    <tableColumn id="7" name="Action" dataDxfId="1"/>
+    <tableColumn id="14" name="Priority" dataDxfId="15"/>
+    <tableColumn id="7" name="Action" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="B3:I16" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21" tableBorderDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="B3:I16" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" tableBorderDxfId="8">
   <autoFilter ref="B3:I16"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="ID" dataDxfId="19">
+    <tableColumn id="1" name="ID" dataDxfId="7">
       <calculatedColumnFormula>B3+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Issue Description" dataDxfId="18"/>
-    <tableColumn id="6" name="Department" dataDxfId="17"/>
-    <tableColumn id="4" name="Actual Status" dataDxfId="16"/>
-    <tableColumn id="5" name="Open_Date" dataDxfId="15"/>
-    <tableColumn id="3" name="Close_Date" dataDxfId="14"/>
-    <tableColumn id="14" name="Priority" dataDxfId="13"/>
-    <tableColumn id="7" name="Comment" dataDxfId="12"/>
+    <tableColumn id="2" name="Issue Description" dataDxfId="6"/>
+    <tableColumn id="6" name="Department" dataDxfId="5"/>
+    <tableColumn id="4" name="Actual Status" dataDxfId="4"/>
+    <tableColumn id="5" name="Open_Date" dataDxfId="3"/>
+    <tableColumn id="3" name="Close_Date" dataDxfId="2"/>
+    <tableColumn id="14" name="Priority" dataDxfId="1"/>
+    <tableColumn id="7" name="Comment" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4215,7 +4215,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4225,8 +4225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:G22"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4433,14 +4433,14 @@
       <c r="G12" s="37"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="57" t="s">
+      <c r="B14" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="57"/>
-      <c r="E14" s="57" t="s">
+      <c r="C14" s="73"/>
+      <c r="E14" s="73" t="s">
         <v>92</v>
       </c>
-      <c r="F14" s="57"/>
+      <c r="F14" s="73"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="38" t="s">
@@ -4546,8 +4546,8 @@
   </sheetPr>
   <dimension ref="A1:AB33"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView showGridLines="0" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -4642,39 +4642,39 @@
       <c r="S5" s="4"/>
     </row>
     <row r="6" spans="2:19" ht="12" x14ac:dyDescent="0.2">
-      <c r="B6" s="58">
+      <c r="B6" s="57">
         <v>1</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="60" t="s">
+      <c r="E6" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="61">
+      <c r="F6" s="60">
         <v>42653</v>
       </c>
-      <c r="G6" s="61" t="s">
+      <c r="G6" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="H6" s="62">
+      <c r="H6" s="61">
         <v>5</v>
       </c>
-      <c r="I6" s="62">
+      <c r="I6" s="61">
         <v>4</v>
       </c>
-      <c r="J6" s="62">
+      <c r="J6" s="61">
         <f>Table1[[#This Row],[Impact]]*Table1[[#This Row],[Probability(scale)]]</f>
         <v>20</v>
       </c>
-      <c r="K6" s="63" t="str">
+      <c r="K6" s="62" t="str">
         <f>IF(Table1[[#This Row],[Risk score]]&gt;=15,"High",IF(Table1[[#This Row],[Risk score]]&gt;=6,"Medium","Low"))</f>
         <v>High</v>
       </c>
-      <c r="L6" s="60" t="s">
+      <c r="L6" s="59" t="s">
         <v>41</v>
       </c>
       <c r="M6" s="2"/>
@@ -4682,39 +4682,39 @@
       <c r="S6" s="10"/>
     </row>
     <row r="7" spans="2:19" ht="12" x14ac:dyDescent="0.2">
-      <c r="B7" s="58">
+      <c r="B7" s="57">
         <f>B6+1</f>
         <v>2</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="59" t="s">
+      <c r="D7" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="64" t="s">
+      <c r="E7" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="61">
+      <c r="F7" s="60">
         <v>42653</v>
       </c>
-      <c r="G7" s="65" t="s">
+      <c r="G7" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="H7" s="66">
+      <c r="H7" s="65">
         <v>5</v>
       </c>
-      <c r="I7" s="66">
+      <c r="I7" s="65">
         <v>4</v>
       </c>
-      <c r="J7" s="67">
+      <c r="J7" s="66">
         <f>Table1[[#This Row],[Impact]]*Table1[[#This Row],[Probability(scale)]]</f>
         <v>20</v>
       </c>
-      <c r="K7" s="68" t="s">
+      <c r="K7" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="58" t="s">
+      <c r="L7" s="57" t="s">
         <v>65</v>
       </c>
       <c r="M7" s="2"/>
@@ -4722,40 +4722,40 @@
       <c r="S7" s="10"/>
     </row>
     <row r="8" spans="2:19" ht="12" x14ac:dyDescent="0.2">
-      <c r="B8" s="58">
+      <c r="B8" s="57">
         <f>B7+1</f>
         <v>3</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="59" t="s">
+      <c r="D8" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="60" t="s">
+      <c r="E8" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="61">
+      <c r="F8" s="60">
         <v>42653</v>
       </c>
-      <c r="G8" s="61" t="s">
+      <c r="G8" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="H8" s="62">
+      <c r="H8" s="61">
         <v>4</v>
       </c>
-      <c r="I8" s="62">
+      <c r="I8" s="61">
         <v>3</v>
       </c>
-      <c r="J8" s="62">
+      <c r="J8" s="61">
         <f>Table1[[#This Row],[Impact]]*Table1[[#This Row],[Probability(scale)]]</f>
         <v>12</v>
       </c>
-      <c r="K8" s="63" t="str">
+      <c r="K8" s="62" t="str">
         <f>IF(Table1[[#This Row],[Risk score]]&gt;=15,"High",IF(Table1[[#This Row],[Risk score]]&gt;=6,"Medium","Low"))</f>
         <v>Medium</v>
       </c>
-      <c r="L8" s="60" t="s">
+      <c r="L8" s="59" t="s">
         <v>50</v>
       </c>
       <c r="M8" s="2"/>
@@ -4763,40 +4763,40 @@
       <c r="S8" s="10"/>
     </row>
     <row r="9" spans="2:19" ht="12" x14ac:dyDescent="0.2">
-      <c r="B9" s="58">
+      <c r="B9" s="57">
         <f t="shared" ref="B9:B24" si="0">B8+1</f>
         <v>4</v>
       </c>
-      <c r="C9" s="59" t="s">
+      <c r="C9" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="59" t="s">
+      <c r="D9" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="60" t="s">
+      <c r="E9" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="61">
+      <c r="F9" s="60">
         <v>42653</v>
       </c>
-      <c r="G9" s="61" t="s">
+      <c r="G9" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="H9" s="62">
+      <c r="H9" s="61">
         <v>3</v>
       </c>
-      <c r="I9" s="62">
+      <c r="I9" s="61">
         <v>3</v>
       </c>
-      <c r="J9" s="62">
+      <c r="J9" s="61">
         <f>Table1[[#This Row],[Impact]]*Table1[[#This Row],[Probability(scale)]]</f>
         <v>9</v>
       </c>
-      <c r="K9" s="63" t="str">
+      <c r="K9" s="62" t="str">
         <f>IF(Table1[[#This Row],[Risk score]]&gt;=15,"High",IF(Table1[[#This Row],[Risk score]]&gt;=6,"Medium","Low"))</f>
         <v>Medium</v>
       </c>
-      <c r="L9" s="60" t="s">
+      <c r="L9" s="59" t="s">
         <v>49</v>
       </c>
       <c r="M9" s="2"/>
@@ -4804,118 +4804,118 @@
       <c r="S9" s="10"/>
     </row>
     <row r="10" spans="2:19" ht="12" x14ac:dyDescent="0.2">
-      <c r="B10" s="58">
+      <c r="B10" s="57">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C10" s="59" t="s">
+      <c r="C10" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="59" t="s">
+      <c r="D10" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="60" t="s">
+      <c r="E10" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="61">
+      <c r="F10" s="60">
         <v>42653</v>
       </c>
-      <c r="G10" s="61" t="s">
+      <c r="G10" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="H10" s="62">
+      <c r="H10" s="61">
         <v>3</v>
       </c>
-      <c r="I10" s="62">
+      <c r="I10" s="61">
         <v>2</v>
       </c>
-      <c r="J10" s="62">
+      <c r="J10" s="61">
         <f>Table1[[#This Row],[Impact]]*Table1[[#This Row],[Probability(scale)]]</f>
         <v>6</v>
       </c>
-      <c r="K10" s="63" t="str">
+      <c r="K10" s="62" t="str">
         <f>IF(Table1[[#This Row],[Risk score]]&gt;=15,"High",IF(Table1[[#This Row],[Risk score]]&gt;=6,"Medium","Low"))</f>
         <v>Medium</v>
       </c>
-      <c r="L10" s="60"/>
+      <c r="L10" s="59"/>
       <c r="M10" s="2"/>
       <c r="R10" s="10"/>
       <c r="S10" s="10"/>
     </row>
     <row r="11" spans="2:19" ht="12" x14ac:dyDescent="0.2">
-      <c r="B11" s="58">
+      <c r="B11" s="57">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C11" s="59" t="s">
+      <c r="C11" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="59" t="s">
+      <c r="D11" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="60" t="s">
+      <c r="E11" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="61">
+      <c r="F11" s="60">
         <v>42653</v>
       </c>
-      <c r="G11" s="61" t="s">
+      <c r="G11" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="H11" s="62">
+      <c r="H11" s="61">
         <v>4</v>
       </c>
-      <c r="I11" s="62">
+      <c r="I11" s="61">
         <v>4</v>
       </c>
-      <c r="J11" s="62">
+      <c r="J11" s="61">
         <f>Table1[[#This Row],[Impact]]*Table1[[#This Row],[Probability(scale)]]</f>
         <v>16</v>
       </c>
-      <c r="K11" s="63" t="str">
+      <c r="K11" s="62" t="str">
         <f>IF(Table1[[#This Row],[Risk score]]&gt;=15,"High",IF(Table1[[#This Row],[Risk score]]&gt;=6,"Medium","Low"))</f>
         <v>High</v>
       </c>
-      <c r="L11" s="60"/>
+      <c r="L11" s="59"/>
       <c r="M11" s="2"/>
       <c r="R11" s="10"/>
       <c r="S11" s="10"/>
     </row>
     <row r="12" spans="2:19" ht="12" x14ac:dyDescent="0.2">
-      <c r="B12" s="58">
+      <c r="B12" s="57">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C12" s="59" t="s">
+      <c r="C12" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="59" t="s">
+      <c r="D12" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="60" t="s">
+      <c r="E12" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="61">
+      <c r="F12" s="60">
         <v>42653</v>
       </c>
-      <c r="G12" s="61" t="s">
+      <c r="G12" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="H12" s="62">
+      <c r="H12" s="61">
         <v>3</v>
       </c>
-      <c r="I12" s="62">
+      <c r="I12" s="61">
         <v>4</v>
       </c>
-      <c r="J12" s="62">
+      <c r="J12" s="61">
         <f>Table1[[#This Row],[Impact]]*Table1[[#This Row],[Probability(scale)]]</f>
         <v>12</v>
       </c>
-      <c r="K12" s="63" t="str">
+      <c r="K12" s="62" t="str">
         <f>IF(Table1[[#This Row],[Risk score]]&gt;=15,"High",IF(Table1[[#This Row],[Risk score]]&gt;=6,"Medium","Low"))</f>
         <v>Medium</v>
       </c>
-      <c r="L12" s="60" t="s">
+      <c r="L12" s="59" t="s">
         <v>51</v>
       </c>
       <c r="M12" s="11"/>
@@ -4923,40 +4923,40 @@
       <c r="S12" s="7"/>
     </row>
     <row r="13" spans="2:19" ht="12" x14ac:dyDescent="0.2">
-      <c r="B13" s="58">
+      <c r="B13" s="57">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C13" s="59" t="s">
+      <c r="C13" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="59" t="s">
+      <c r="D13" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="60" t="s">
+      <c r="E13" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="61">
+      <c r="F13" s="60">
         <v>42653</v>
       </c>
-      <c r="G13" s="61" t="s">
+      <c r="G13" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="H13" s="62">
+      <c r="H13" s="61">
         <v>2</v>
       </c>
-      <c r="I13" s="62">
+      <c r="I13" s="61">
         <v>4</v>
       </c>
-      <c r="J13" s="62">
+      <c r="J13" s="61">
         <f>Table1[[#This Row],[Impact]]*Table1[[#This Row],[Probability(scale)]]</f>
         <v>8</v>
       </c>
-      <c r="K13" s="63" t="str">
+      <c r="K13" s="62" t="str">
         <f>IF(Table1[[#This Row],[Risk score]]&gt;=15,"High",IF(Table1[[#This Row],[Risk score]]&gt;=6,"Medium","Low"))</f>
         <v>Medium</v>
       </c>
-      <c r="L13" s="60" t="s">
+      <c r="L13" s="59" t="s">
         <v>52</v>
       </c>
       <c r="M13" s="11"/>
@@ -4964,40 +4964,40 @@
       <c r="S13" s="10"/>
     </row>
     <row r="14" spans="2:19" ht="12" x14ac:dyDescent="0.2">
-      <c r="B14" s="58">
+      <c r="B14" s="57">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C14" s="69" t="s">
+      <c r="C14" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="59" t="s">
+      <c r="D14" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="60" t="s">
+      <c r="E14" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="61">
+      <c r="F14" s="60">
         <v>42681</v>
       </c>
-      <c r="G14" s="61" t="s">
+      <c r="G14" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="H14" s="62">
+      <c r="H14" s="61">
         <v>5</v>
       </c>
-      <c r="I14" s="62">
+      <c r="I14" s="61">
         <v>2</v>
       </c>
-      <c r="J14" s="62">
+      <c r="J14" s="61">
         <f>Table1[[#This Row],[Impact]]*Table1[[#This Row],[Probability(scale)]]</f>
         <v>10</v>
       </c>
-      <c r="K14" s="63" t="str">
+      <c r="K14" s="62" t="str">
         <f>IF(Table1[[#This Row],[Risk score]]&gt;=15,"High",IF(Table1[[#This Row],[Risk score]]&gt;=6,"Medium","Low"))</f>
         <v>Medium</v>
       </c>
-      <c r="L14" s="60" t="s">
+      <c r="L14" s="59" t="s">
         <v>53</v>
       </c>
       <c r="M14" s="11"/>
@@ -5005,40 +5005,40 @@
       <c r="S14" s="10"/>
     </row>
     <row r="15" spans="2:19" ht="12" x14ac:dyDescent="0.2">
-      <c r="B15" s="58">
+      <c r="B15" s="57">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C15" s="70" t="s">
+      <c r="C15" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="59" t="s">
+      <c r="D15" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="60" t="s">
+      <c r="E15" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="61">
+      <c r="F15" s="60">
         <v>42681</v>
       </c>
-      <c r="G15" s="61" t="s">
+      <c r="G15" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="H15" s="62">
+      <c r="H15" s="61">
         <v>3</v>
       </c>
-      <c r="I15" s="62">
+      <c r="I15" s="61">
         <v>1</v>
       </c>
-      <c r="J15" s="62">
+      <c r="J15" s="61">
         <f>Table1[[#This Row],[Impact]]*Table1[[#This Row],[Probability(scale)]]</f>
         <v>3</v>
       </c>
-      <c r="K15" s="63" t="str">
+      <c r="K15" s="62" t="str">
         <f>IF(Table1[[#This Row],[Risk score]]&gt;=15,"High",IF(Table1[[#This Row],[Risk score]]&gt;=6,"Medium","Low"))</f>
         <v>Low</v>
       </c>
-      <c r="L15" s="60" t="s">
+      <c r="L15" s="59" t="s">
         <v>54</v>
       </c>
       <c r="M15" s="11"/>
@@ -5046,40 +5046,40 @@
       <c r="S15" s="10"/>
     </row>
     <row r="16" spans="2:19" ht="12" x14ac:dyDescent="0.2">
-      <c r="B16" s="58">
+      <c r="B16" s="57">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C16" s="69" t="s">
+      <c r="C16" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="59" t="s">
+      <c r="D16" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="60" t="s">
+      <c r="E16" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="61">
+      <c r="F16" s="60">
         <v>42681</v>
       </c>
-      <c r="G16" s="61" t="s">
+      <c r="G16" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="H16" s="62">
+      <c r="H16" s="61">
         <v>5</v>
       </c>
-      <c r="I16" s="62">
+      <c r="I16" s="61">
         <v>3</v>
       </c>
-      <c r="J16" s="62">
+      <c r="J16" s="61">
         <f>Table1[[#This Row],[Impact]]*Table1[[#This Row],[Probability(scale)]]</f>
         <v>15</v>
       </c>
-      <c r="K16" s="63" t="str">
+      <c r="K16" s="62" t="str">
         <f>IF(Table1[[#This Row],[Risk score]]&gt;=15,"High",IF(Table1[[#This Row],[Risk score]]&gt;=6,"Medium","Low"))</f>
         <v>High</v>
       </c>
-      <c r="L16" s="60" t="s">
+      <c r="L16" s="59" t="s">
         <v>55</v>
       </c>
       <c r="M16" s="11"/>
@@ -5087,40 +5087,40 @@
       <c r="S16" s="10"/>
     </row>
     <row r="17" spans="2:19" ht="12" x14ac:dyDescent="0.2">
-      <c r="B17" s="58">
+      <c r="B17" s="57">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C17" s="70" t="s">
+      <c r="C17" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="59" t="s">
+      <c r="D17" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="60" t="s">
+      <c r="E17" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="F17" s="61">
+      <c r="F17" s="60">
         <v>42681</v>
       </c>
-      <c r="G17" s="61" t="s">
+      <c r="G17" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="H17" s="62">
+      <c r="H17" s="61">
         <v>4</v>
       </c>
-      <c r="I17" s="62">
+      <c r="I17" s="61">
         <v>3</v>
       </c>
-      <c r="J17" s="62">
+      <c r="J17" s="61">
         <f>Table1[[#This Row],[Impact]]*Table1[[#This Row],[Probability(scale)]]</f>
         <v>12</v>
       </c>
-      <c r="K17" s="63" t="str">
+      <c r="K17" s="62" t="str">
         <f>IF(Table1[[#This Row],[Risk score]]&gt;=15,"High",IF(Table1[[#This Row],[Risk score]]&gt;=6,"Medium","Low"))</f>
         <v>Medium</v>
       </c>
-      <c r="L17" s="60" t="s">
+      <c r="L17" s="59" t="s">
         <v>76</v>
       </c>
       <c r="M17" s="11"/>
@@ -5128,40 +5128,40 @@
       <c r="S17" s="10"/>
     </row>
     <row r="18" spans="2:19" ht="12" x14ac:dyDescent="0.2">
-      <c r="B18" s="58">
+      <c r="B18" s="57">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C18" s="69" t="s">
+      <c r="C18" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="59" t="s">
+      <c r="D18" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="60" t="s">
+      <c r="E18" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="F18" s="61">
+      <c r="F18" s="60">
         <v>42681</v>
       </c>
-      <c r="G18" s="61" t="s">
+      <c r="G18" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="H18" s="62">
+      <c r="H18" s="61">
         <v>4</v>
       </c>
-      <c r="I18" s="62">
+      <c r="I18" s="61">
         <v>4</v>
       </c>
-      <c r="J18" s="62">
+      <c r="J18" s="61">
         <f>Table1[[#This Row],[Impact]]*Table1[[#This Row],[Probability(scale)]]</f>
         <v>16</v>
       </c>
-      <c r="K18" s="63" t="str">
+      <c r="K18" s="62" t="str">
         <f>IF(Table1[[#This Row],[Risk score]]&gt;=15,"High",IF(Table1[[#This Row],[Risk score]]&gt;=6,"Medium","Low"))</f>
         <v>High</v>
       </c>
-      <c r="L18" s="60" t="s">
+      <c r="L18" s="59" t="s">
         <v>57</v>
       </c>
       <c r="M18" s="11"/>
@@ -5169,118 +5169,118 @@
       <c r="S18" s="10"/>
     </row>
     <row r="19" spans="2:19" ht="12" x14ac:dyDescent="0.2">
-      <c r="B19" s="58">
+      <c r="B19" s="57">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C19" s="70" t="s">
+      <c r="C19" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="59" t="s">
+      <c r="D19" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="60" t="s">
+      <c r="E19" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="61">
+      <c r="F19" s="60">
         <v>42681</v>
       </c>
-      <c r="G19" s="61" t="s">
+      <c r="G19" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="H19" s="62">
+      <c r="H19" s="61">
         <v>3</v>
       </c>
-      <c r="I19" s="62">
+      <c r="I19" s="61">
         <v>1</v>
       </c>
-      <c r="J19" s="62">
+      <c r="J19" s="61">
         <f>Table1[[#This Row],[Impact]]*Table1[[#This Row],[Probability(scale)]]</f>
         <v>3</v>
       </c>
-      <c r="K19" s="63" t="str">
+      <c r="K19" s="62" t="str">
         <f>IF(Table1[[#This Row],[Risk score]]&gt;=15,"High",IF(Table1[[#This Row],[Risk score]]&gt;=6,"Medium","Low"))</f>
         <v>Low</v>
       </c>
-      <c r="L19" s="60"/>
+      <c r="L19" s="59"/>
       <c r="M19" s="11"/>
       <c r="R19" s="7"/>
       <c r="S19" s="7"/>
     </row>
     <row r="20" spans="2:19" ht="12" x14ac:dyDescent="0.2">
-      <c r="B20" s="58">
+      <c r="B20" s="57">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C20" s="69" t="s">
+      <c r="C20" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="59" t="s">
+      <c r="D20" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="60" t="s">
+      <c r="E20" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="F20" s="61">
+      <c r="F20" s="60">
         <v>42681</v>
       </c>
-      <c r="G20" s="61" t="s">
+      <c r="G20" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="H20" s="62">
+      <c r="H20" s="61">
         <v>5</v>
       </c>
-      <c r="I20" s="62">
+      <c r="I20" s="61">
         <v>4</v>
       </c>
-      <c r="J20" s="62">
+      <c r="J20" s="61">
         <f>Table1[[#This Row],[Impact]]*Table1[[#This Row],[Probability(scale)]]</f>
         <v>20</v>
       </c>
-      <c r="K20" s="63" t="str">
+      <c r="K20" s="62" t="str">
         <f>IF(Table1[[#This Row],[Risk score]]&gt;=15,"High",IF(Table1[[#This Row],[Risk score]]&gt;=6,"Medium","Low"))</f>
         <v>High</v>
       </c>
-      <c r="L20" s="60"/>
+      <c r="L20" s="59"/>
       <c r="M20" s="11"/>
       <c r="R20" s="6"/>
       <c r="S20" s="6"/>
     </row>
     <row r="21" spans="2:19" ht="12" x14ac:dyDescent="0.2">
-      <c r="B21" s="58">
+      <c r="B21" s="57">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C21" s="70" t="s">
+      <c r="C21" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="59" t="s">
+      <c r="D21" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="60" t="s">
+      <c r="E21" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="F21" s="61">
+      <c r="F21" s="60">
         <v>42681</v>
       </c>
-      <c r="G21" s="61" t="s">
+      <c r="G21" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="H21" s="62">
+      <c r="H21" s="61">
         <v>5</v>
       </c>
-      <c r="I21" s="62">
+      <c r="I21" s="61">
         <v>5</v>
       </c>
-      <c r="J21" s="62">
+      <c r="J21" s="61">
         <f>Table1[[#This Row],[Impact]]*Table1[[#This Row],[Probability(scale)]]</f>
         <v>25</v>
       </c>
-      <c r="K21" s="63" t="str">
+      <c r="K21" s="62" t="str">
         <f>IF(Table1[[#This Row],[Risk score]]&gt;=15,"High",IF(Table1[[#This Row],[Risk score]]&gt;=6,"Medium","Low"))</f>
         <v>High</v>
       </c>
-      <c r="L21" s="60" t="s">
+      <c r="L21" s="59" t="s">
         <v>58</v>
       </c>
       <c r="M21" s="11"/>
@@ -5288,79 +5288,79 @@
       <c r="S21" s="6"/>
     </row>
     <row r="22" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="58">
+      <c r="B22" s="57">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C22" s="69" t="s">
+      <c r="C22" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="59" t="s">
+      <c r="D22" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="60" t="s">
+      <c r="E22" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="F22" s="61">
+      <c r="F22" s="60">
         <v>42681</v>
       </c>
-      <c r="G22" s="61" t="s">
+      <c r="G22" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="H22" s="62">
+      <c r="H22" s="61">
         <v>3</v>
       </c>
-      <c r="I22" s="62">
+      <c r="I22" s="61">
         <v>2</v>
       </c>
-      <c r="J22" s="62">
+      <c r="J22" s="61">
         <f>Table1[[#This Row],[Impact]]*Table1[[#This Row],[Probability(scale)]]</f>
         <v>6</v>
       </c>
-      <c r="K22" s="63" t="str">
+      <c r="K22" s="62" t="str">
         <f>IF(Table1[[#This Row],[Risk score]]&gt;=15,"High",IF(Table1[[#This Row],[Risk score]]&gt;=6,"Medium","Low"))</f>
         <v>Medium</v>
       </c>
-      <c r="L22" s="60"/>
+      <c r="L22" s="59"/>
       <c r="M22" s="11"/>
       <c r="R22" s="6"/>
       <c r="S22" s="6"/>
     </row>
     <row r="23" spans="2:19" ht="12" x14ac:dyDescent="0.2">
-      <c r="B23" s="58">
+      <c r="B23" s="57">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C23" s="70" t="s">
+      <c r="C23" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="59" t="s">
+      <c r="D23" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="60" t="s">
+      <c r="E23" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="F23" s="61">
+      <c r="F23" s="60">
         <v>42681</v>
       </c>
-      <c r="G23" s="61" t="s">
+      <c r="G23" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="H23" s="62">
+      <c r="H23" s="61">
         <v>5</v>
       </c>
-      <c r="I23" s="62">
+      <c r="I23" s="61">
         <v>3</v>
       </c>
-      <c r="J23" s="62">
+      <c r="J23" s="61">
         <f>Table1[[#This Row],[Impact]]*Table1[[#This Row],[Probability(scale)]]</f>
         <v>15</v>
       </c>
-      <c r="K23" s="63" t="str">
+      <c r="K23" s="62" t="str">
         <f>IF(Table1[[#This Row],[Risk score]]&gt;=15,"High",IF(Table1[[#This Row],[Risk score]]&gt;=6,"Medium","Low"))</f>
         <v>High</v>
       </c>
-      <c r="L23" s="60" t="s">
+      <c r="L23" s="59" t="s">
         <v>60</v>
       </c>
       <c r="M23" s="11"/>
@@ -5368,40 +5368,40 @@
       <c r="S23" s="4"/>
     </row>
     <row r="24" spans="2:19" ht="12" x14ac:dyDescent="0.2">
-      <c r="B24" s="58">
+      <c r="B24" s="57">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C24" s="59" t="s">
+      <c r="C24" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="59" t="s">
+      <c r="D24" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="60" t="s">
+      <c r="E24" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="F24" s="61">
+      <c r="F24" s="60">
         <v>42716</v>
       </c>
-      <c r="G24" s="61" t="s">
+      <c r="G24" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="H24" s="62">
+      <c r="H24" s="61">
         <v>3</v>
       </c>
-      <c r="I24" s="62">
+      <c r="I24" s="61">
         <v>5</v>
       </c>
-      <c r="J24" s="62">
+      <c r="J24" s="61">
         <f>Table1[[#This Row],[Impact]]*Table1[[#This Row],[Probability(scale)]]</f>
         <v>15</v>
       </c>
-      <c r="K24" s="63" t="str">
+      <c r="K24" s="62" t="str">
         <f>IF(Table1[[#This Row],[Risk score]]&gt;=15,"High",IF(Table1[[#This Row],[Risk score]]&gt;=6,"Medium","Low"))</f>
         <v>High</v>
       </c>
-      <c r="L24" s="60" t="s">
+      <c r="L24" s="59" t="s">
         <v>61</v>
       </c>
       <c r="M24" s="11"/>
@@ -5409,40 +5409,40 @@
       <c r="S24" s="7"/>
     </row>
     <row r="25" spans="2:19" ht="12" x14ac:dyDescent="0.2">
-      <c r="B25" s="58">
+      <c r="B25" s="57">
         <f t="shared" ref="B25:B32" si="1">B24+1</f>
         <v>20</v>
       </c>
-      <c r="C25" s="59" t="s">
+      <c r="C25" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="59" t="s">
+      <c r="D25" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="60" t="s">
+      <c r="E25" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="F25" s="61">
+      <c r="F25" s="60">
         <v>42716</v>
       </c>
-      <c r="G25" s="61" t="s">
+      <c r="G25" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="H25" s="62">
+      <c r="H25" s="61">
         <v>1</v>
       </c>
-      <c r="I25" s="62">
+      <c r="I25" s="61">
         <v>2</v>
       </c>
-      <c r="J25" s="62">
+      <c r="J25" s="61">
         <f>Table1[[#This Row],[Impact]]*Table1[[#This Row],[Probability(scale)]]</f>
         <v>2</v>
       </c>
-      <c r="K25" s="63" t="str">
+      <c r="K25" s="62" t="str">
         <f>IF(Table1[[#This Row],[Risk score]]&gt;=15,"High",IF(Table1[[#This Row],[Risk score]]&gt;=6,"Medium","Low"))</f>
         <v>Low</v>
       </c>
-      <c r="L25" s="60" t="s">
+      <c r="L25" s="59" t="s">
         <v>62</v>
       </c>
       <c r="M25" s="11"/>
@@ -5450,118 +5450,118 @@
       <c r="S25" s="4"/>
     </row>
     <row r="26" spans="2:19" ht="12" x14ac:dyDescent="0.2">
-      <c r="B26" s="58">
+      <c r="B26" s="57">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="C26" s="59" t="s">
+      <c r="C26" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="59" t="s">
+      <c r="D26" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="E26" s="60" t="s">
+      <c r="E26" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="F26" s="61">
+      <c r="F26" s="60">
         <v>42716</v>
       </c>
-      <c r="G26" s="61" t="s">
+      <c r="G26" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="H26" s="62">
+      <c r="H26" s="61">
         <v>4</v>
       </c>
-      <c r="I26" s="62">
+      <c r="I26" s="61">
         <v>2</v>
       </c>
-      <c r="J26" s="62">
+      <c r="J26" s="61">
         <f>Table1[[#This Row],[Impact]]*Table1[[#This Row],[Probability(scale)]]</f>
         <v>8</v>
       </c>
-      <c r="K26" s="63" t="str">
+      <c r="K26" s="62" t="str">
         <f>IF(Table1[[#This Row],[Risk score]]&gt;=15,"High",IF(Table1[[#This Row],[Risk score]]&gt;=6,"Medium","Low"))</f>
         <v>Medium</v>
       </c>
-      <c r="L26" s="60"/>
+      <c r="L26" s="59"/>
       <c r="M26" s="11"/>
       <c r="R26" s="4"/>
       <c r="S26" s="4"/>
     </row>
     <row r="27" spans="2:19" ht="12" x14ac:dyDescent="0.2">
-      <c r="B27" s="58">
+      <c r="B27" s="57">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="C27" s="59" t="s">
+      <c r="C27" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="59" t="s">
+      <c r="D27" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="E27" s="60" t="s">
+      <c r="E27" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="F27" s="61">
+      <c r="F27" s="60">
         <v>42737</v>
       </c>
-      <c r="G27" s="61" t="s">
+      <c r="G27" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="H27" s="62">
+      <c r="H27" s="61">
         <v>4</v>
       </c>
-      <c r="I27" s="62">
+      <c r="I27" s="61">
         <v>1</v>
       </c>
-      <c r="J27" s="62">
+      <c r="J27" s="61">
         <f>Table1[[#This Row],[Impact]]*Table1[[#This Row],[Probability(scale)]]</f>
         <v>4</v>
       </c>
-      <c r="K27" s="63" t="str">
+      <c r="K27" s="62" t="str">
         <f>IF(Table1[[#This Row],[Risk score]]&gt;=15,"High",IF(Table1[[#This Row],[Risk score]]&gt;=6,"Medium","Low"))</f>
         <v>Low</v>
       </c>
-      <c r="L27" s="60"/>
+      <c r="L27" s="59"/>
       <c r="M27" s="11"/>
       <c r="R27" s="4"/>
       <c r="S27" s="4"/>
     </row>
     <row r="28" spans="2:19" ht="12" x14ac:dyDescent="0.2">
-      <c r="B28" s="58">
+      <c r="B28" s="57">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="C28" s="59" t="s">
+      <c r="C28" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="59" t="s">
+      <c r="D28" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="E28" s="60" t="s">
+      <c r="E28" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="F28" s="61">
+      <c r="F28" s="60">
         <v>42737</v>
       </c>
-      <c r="G28" s="61" t="s">
+      <c r="G28" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="H28" s="62">
+      <c r="H28" s="61">
         <v>4</v>
       </c>
-      <c r="I28" s="62">
+      <c r="I28" s="61">
         <v>2</v>
       </c>
-      <c r="J28" s="62">
+      <c r="J28" s="61">
         <f>Table1[[#This Row],[Impact]]*Table1[[#This Row],[Probability(scale)]]</f>
         <v>8</v>
       </c>
-      <c r="K28" s="63" t="str">
+      <c r="K28" s="62" t="str">
         <f>IF(Table1[[#This Row],[Risk score]]&gt;=15,"High",IF(Table1[[#This Row],[Risk score]]&gt;=6,"Medium","Low"))</f>
         <v>Medium</v>
       </c>
-      <c r="L28" s="60" t="s">
+      <c r="L28" s="59" t="s">
         <v>63</v>
       </c>
       <c r="M28" s="11"/>
@@ -5569,38 +5569,38 @@
       <c r="S28" s="4"/>
     </row>
     <row r="29" spans="2:19" ht="12" x14ac:dyDescent="0.2">
-      <c r="B29" s="58">
+      <c r="B29" s="57">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="C29" s="59" t="s">
+      <c r="C29" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="D29" s="59" t="s">
+      <c r="D29" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="E29" s="60" t="s">
+      <c r="E29" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="F29" s="61">
+      <c r="F29" s="60">
         <v>42768</v>
       </c>
-      <c r="G29" s="71" t="s">
+      <c r="G29" s="70" t="s">
         <v>78</v>
       </c>
-      <c r="H29" s="62">
+      <c r="H29" s="61">
         <v>4</v>
       </c>
-      <c r="I29" s="62">
+      <c r="I29" s="61">
         <v>3</v>
       </c>
-      <c r="J29" s="62">
+      <c r="J29" s="61">
         <v>12</v>
       </c>
-      <c r="K29" s="63" t="s">
+      <c r="K29" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="L29" s="60" t="s">
+      <c r="L29" s="59" t="s">
         <v>61</v>
       </c>
       <c r="M29" s="11"/>
@@ -5608,58 +5608,58 @@
       <c r="S29" s="4"/>
     </row>
     <row r="30" spans="2:19" ht="12" x14ac:dyDescent="0.2">
-      <c r="B30" s="58">
+      <c r="B30" s="57">
         <f>B29+1</f>
         <v>25</v>
       </c>
-      <c r="C30" s="59"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="72"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="66"/>
-      <c r="I30" s="66"/>
-      <c r="J30" s="67"/>
-      <c r="K30" s="68"/>
-      <c r="L30" s="58"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="65"/>
+      <c r="I30" s="65"/>
+      <c r="J30" s="66"/>
+      <c r="K30" s="67"/>
+      <c r="L30" s="57"/>
       <c r="M30" s="11"/>
       <c r="R30" s="4"/>
       <c r="S30" s="4"/>
     </row>
     <row r="31" spans="2:19" ht="12" x14ac:dyDescent="0.2">
-      <c r="B31" s="58">
+      <c r="B31" s="57">
         <f>B30+1</f>
         <v>26</v>
       </c>
-      <c r="C31" s="59"/>
-      <c r="D31" s="59"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="71"/>
-      <c r="G31" s="71"/>
-      <c r="H31" s="62"/>
-      <c r="I31" s="62"/>
-      <c r="J31" s="62"/>
-      <c r="K31" s="63"/>
-      <c r="L31" s="60"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="70"/>
+      <c r="G31" s="70"/>
+      <c r="H31" s="61"/>
+      <c r="I31" s="61"/>
+      <c r="J31" s="61"/>
+      <c r="K31" s="62"/>
+      <c r="L31" s="59"/>
       <c r="M31" s="11"/>
       <c r="R31" s="4"/>
       <c r="S31" s="4"/>
     </row>
     <row r="32" spans="2:19" ht="12" x14ac:dyDescent="0.2">
-      <c r="B32" s="58">
+      <c r="B32" s="57">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="C32" s="59"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="71"/>
-      <c r="G32" s="71"/>
-      <c r="H32" s="62"/>
-      <c r="I32" s="62"/>
-      <c r="J32" s="62"/>
-      <c r="K32" s="63"/>
-      <c r="L32" s="60"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="70"/>
+      <c r="G32" s="70"/>
+      <c r="H32" s="61"/>
+      <c r="I32" s="61"/>
+      <c r="J32" s="61"/>
+      <c r="K32" s="62"/>
+      <c r="L32" s="59"/>
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
       <c r="P32" s="4"/>
@@ -5726,7 +5726,7 @@
   <dimension ref="B3:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6054,13 +6054,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H4:H16">
-    <cfRule type="containsText" dxfId="25" priority="45" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="13" priority="45" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",H4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="46" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="12" priority="46" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",H4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="47" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="11" priority="47" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",H4)))</formula>
     </cfRule>
     <cfRule type="iconSet" priority="48">

--- a/7. Risk Management/BSS_RiskAndIssueList_V1.1.xlsx
+++ b/7. Risk Management/BSS_RiskAndIssueList_V1.1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="9405" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="9405" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Dash Board" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="96">
   <si>
     <t>ID</t>
   </si>
@@ -310,6 +310,9 @@
   </si>
   <si>
     <t>Resources is turn over</t>
+  </si>
+  <si>
+    <t>15/1/2017</t>
   </si>
 </sst>
 </file>
@@ -1672,7 +1675,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1896,7 +1898,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -2033,7 +2034,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2278,10 +2278,10 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>7</c:v>
@@ -2317,7 +2317,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -2446,7 +2445,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2612,11 +2610,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="65"/>
-        <c:axId val="72508544"/>
-        <c:axId val="72519680"/>
+        <c:axId val="60577664"/>
+        <c:axId val="60596992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="72508544"/>
+        <c:axId val="60577664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2659,7 +2657,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72519680"/>
+        <c:crossAx val="60596992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2667,7 +2665,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="72519680"/>
+        <c:axId val="60596992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2703,7 +2701,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72508544"/>
+        <c:crossAx val="60577664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2851,7 +2849,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2999,10 +2996,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3035,7 +3032,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -3784,7 +3780,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE0ED5F5-A0D8-4C7F-A05B-AF65D92FB984}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CE0ED5F5-A0D8-4C7F-A05B-AF65D92FB984}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3822,7 +3818,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF3CB91A-BF33-47BF-86B2-5302FF3E0625}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DF3CB91A-BF33-47BF-86B2-5302FF3E0625}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3860,7 +3856,7 @@
         <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{745C757D-EEA0-4E8F-A7DF-4917898F0AF6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{745C757D-EEA0-4E8F-A7DF-4917898F0AF6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3896,7 +3892,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8EAB6BE-AD1C-4008-B2AD-2A535C15335C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D8EAB6BE-AD1C-4008-B2AD-2A535C15335C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4215,7 +4211,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4316,7 +4312,7 @@
       </c>
       <c r="C8" s="26">
         <f>COUNTIFS('Risk List'!$E$6:$E$32,"In Progress",'Risk List'!$K$6:$K$32,"High")</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" s="26">
         <f>COUNTIFS('Risk List'!$E$6:$E$32,"In Progress",'Risk List'!$K$6:$K$32,"Medium")</f>
@@ -4328,11 +4324,11 @@
       </c>
       <c r="F8" s="27">
         <f>SUM(C8:E8)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G8" s="28">
         <f>F8/F11</f>
-        <v>0.20833333333333334</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
@@ -4341,7 +4337,7 @@
       </c>
       <c r="C9" s="26">
         <f>COUNTIFS('Risk List'!$E$6:$E$32,"Closed",'Risk List'!$K$6:$K$32,"High")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D9" s="26">
         <f>COUNTIFS('Risk List'!$E$6:$E$32,"Closed",'Risk List'!$K$6:$K$32,"Medium")</f>
@@ -4353,11 +4349,11 @@
       </c>
       <c r="F9" s="27">
         <f>SUM(C9:E9)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G9" s="41">
         <f>F9/F11</f>
-        <v>0.20833333333333334</v>
+        <v>0.29166666666666669</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4455,7 +4451,7 @@
       </c>
       <c r="F15" s="26">
         <f>COUNTIF(Table13[Actual Status], "Active")</f>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
@@ -4471,7 +4467,7 @@
       </c>
       <c r="F16" s="26">
         <f>COUNTIF(Table13[Actual Status],"Fixed")</f>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
@@ -4546,8 +4542,8 @@
   </sheetPr>
   <dimension ref="A1:AB33"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -4693,7 +4689,7 @@
         <v>16</v>
       </c>
       <c r="E7" s="63" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="F7" s="60">
         <v>42653</v>
@@ -5139,7 +5135,7 @@
         <v>13</v>
       </c>
       <c r="E18" s="59" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="F18" s="60">
         <v>42681</v>
@@ -5725,8 +5721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5802,12 +5798,14 @@
         <v>16</v>
       </c>
       <c r="E5" s="50" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F5" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="G5" s="22"/>
+      <c r="G5" s="22">
+        <v>42738</v>
+      </c>
       <c r="H5" s="17" t="s">
         <v>3</v>
       </c>
@@ -5977,12 +5975,14 @@
         <v>14</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F12" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="G12" s="22"/>
+      <c r="G12" s="22">
+        <v>42738</v>
+      </c>
       <c r="H12" s="17" t="s">
         <v>3</v>
       </c>
@@ -6003,10 +6003,10 @@
         <v>70</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="G13" s="22">
-        <v>42738</v>
+        <v>42737</v>
       </c>
       <c r="H13" s="17" t="s">
         <v>2</v>
